--- a/resultado_acuerdos.xlsx
+++ b/resultado_acuerdos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,24 +548,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>22-08-2024</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>22-05-2025</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>22-07-2024</t>
-        </is>
-      </c>
+          <t>22-09-2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>07-07-2034</t>
@@ -573,7 +561,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>mixto</t>
+          <t>fijo</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -581,39 +569,37 @@
           <t>cuota constante</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>0.2041666666666667</v>
+      </c>
       <c r="I2" t="n">
-        <v>173.18486836</v>
+        <v>95.43690309999999</v>
       </c>
       <c r="J2" t="n">
-        <v>483.2355487</v>
+        <v>877.403522</v>
       </c>
       <c r="K2" t="n">
-        <v>310.0506803</v>
+        <v>781.9666189</v>
       </c>
       <c r="L2" t="n">
-        <v>3065.44508</v>
+        <v>3537.361019</v>
       </c>
       <c r="M2" t="n">
         <v>46744.6056</v>
       </c>
       <c r="N2" t="n">
-        <v>31665.70056774194</v>
-      </c>
-      <c r="O2" t="n">
-        <v>13480.99981548387</v>
-      </c>
+        <v>46528.89067034483</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>46434.55492</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.416325</v>
-      </c>
+        <v>45962.63898</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>53.28533368356025</v>
+        <v>48.46759444827586</v>
       </c>
       <c r="S2" t="n">
-        <v>92.17451328241938</v>
+        <v>7.91637375988506</v>
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
@@ -622,20 +608,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>22-09-2024</t>
+          <t>22-11-2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>22-05-2025</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>22-07-2024</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>07-07-2034</t>
@@ -643,7 +621,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>mixto</t>
+          <t>fijo</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -651,39 +629,37 @@
           <t>cuota constante</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>0.2041666666666667</v>
+      </c>
       <c r="I3" t="n">
-        <v>172.03615643</v>
+        <v>93.84038792</v>
       </c>
       <c r="J3" t="n">
-        <v>483.2355487</v>
+        <v>877.403522</v>
       </c>
       <c r="K3" t="n">
-        <v>311.1993923</v>
+        <v>783.5631341</v>
       </c>
       <c r="L3" t="n">
-        <v>3376.644473</v>
+        <v>4320.924153</v>
       </c>
       <c r="M3" t="n">
-        <v>46434.55492</v>
+        <v>45962.63898</v>
       </c>
       <c r="N3" t="n">
-        <v>46348.70681241379</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
+        <v>45746.4836337931</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>46123.35553</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.416325</v>
-      </c>
+        <v>45179.07585</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>54.70402681340997</v>
+        <v>47.65258711853448</v>
       </c>
       <c r="S3" t="n">
-        <v>94.62860974201151</v>
+        <v>7.7832558960273</v>
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
@@ -692,20 +668,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>22-10-2024</t>
+          <t>22-01-2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>22-05-2025</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>22-07-2024</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>07-07-2034</t>
@@ -713,7 +681,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>mixto</t>
+          <t>fijo</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -721,39 +689,37 @@
           <t>cuota constante</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>0.2041666666666667</v>
+      </c>
       <c r="I4" t="n">
-        <v>170.88318863</v>
+        <v>92.24061319</v>
       </c>
       <c r="J4" t="n">
-        <v>483.2355487</v>
+        <v>877.403522</v>
       </c>
       <c r="K4" t="n">
-        <v>312.3523601</v>
+        <v>785.1629088</v>
       </c>
       <c r="L4" t="n">
-        <v>3688.996833</v>
+        <v>5106.087062</v>
       </c>
       <c r="M4" t="n">
-        <v>46123.35553</v>
+        <v>45179.07585</v>
       </c>
       <c r="N4" t="n">
-        <v>46029.649822</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
+        <v>44943.52697699999</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>45811.00317</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.416325</v>
-      </c>
+        <v>44393.91294</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>54.32745315345346</v>
+        <v>46.81617393437499</v>
       </c>
       <c r="S4" t="n">
-        <v>93.97720171991669</v>
+        <v>7.646641742614584</v>
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
@@ -762,20 +728,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>22-11-2024</t>
+          <t>22-03-2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>22-05-2025</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>22-07-2024</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>07-07-2034</t>
@@ -783,7 +741,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>mixto</t>
+          <t>fijo</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -791,39 +749,37 @@
           <t>cuota constante</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>0.2041666666666667</v>
+      </c>
       <c r="I5" t="n">
-        <v>169.72594916</v>
+        <v>90.63757225000001</v>
       </c>
       <c r="J5" t="n">
-        <v>483.2355487</v>
+        <v>877.403522</v>
       </c>
       <c r="K5" t="n">
-        <v>313.5095995</v>
+        <v>786.7659497</v>
       </c>
       <c r="L5" t="n">
-        <v>4002.506432</v>
+        <v>5892.853011</v>
       </c>
       <c r="M5" t="n">
-        <v>45811.00317</v>
+        <v>44393.91294</v>
       </c>
       <c r="N5" t="n">
-        <v>45724.51776310345</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
+        <v>44157.883155</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>45497.49357</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.416325</v>
-      </c>
+        <v>43607.14699</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>53.96731468402292</v>
+        <v>45.997794953125</v>
       </c>
       <c r="S5" t="n">
-        <v>93.35422376633622</v>
+        <v>7.512973175677084</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
@@ -832,20 +788,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>22-12-2024</t>
+          <t>22-05-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>22-05-2025</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>22-07-2024</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>07-07-2034</t>
@@ -853,7 +801,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>mixto</t>
+          <t>fijo</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -861,39 +809,37 @@
           <t>cuota constante</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>0.2041666666666667</v>
+      </c>
       <c r="I6" t="n">
-        <v>168.56442222</v>
+        <v>89.03125844</v>
       </c>
       <c r="J6" t="n">
-        <v>483.2355487</v>
+        <v>877.403522</v>
       </c>
       <c r="K6" t="n">
-        <v>314.6711265</v>
+        <v>788.3722636</v>
       </c>
       <c r="L6" t="n">
-        <v>4317.177559</v>
+        <v>6681.225275</v>
       </c>
       <c r="M6" t="n">
-        <v>45497.49357</v>
+        <v>43607.14699</v>
       </c>
       <c r="N6" t="n">
-        <v>45403.092231</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
+        <v>43370.63531199999</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>45182.82244</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.416325</v>
-      </c>
+        <v>42818.77473</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>53.58794550339256</v>
+        <v>45.17774511666666</v>
       </c>
       <c r="S6" t="n">
-        <v>92.69797997162502</v>
+        <v>7.379031702388889</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -902,20 +848,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>22-01-2025</t>
+          <t>22-07-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>22-05-2025</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>22-07-2024</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>07-07-2034</t>
@@ -923,7 +861,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>mixto</t>
+          <t>fijo</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -931,39 +869,37 @@
           <t>cuota constante</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>0.2041666666666667</v>
+      </c>
       <c r="I7" t="n">
-        <v>167.3985919</v>
+        <v>87.42166507</v>
       </c>
       <c r="J7" t="n">
-        <v>483.2355487</v>
+        <v>877.403522</v>
       </c>
       <c r="K7" t="n">
-        <v>315.8369568</v>
+        <v>789.9818569</v>
       </c>
       <c r="L7" t="n">
-        <v>4633.014515</v>
+        <v>7471.207132</v>
       </c>
       <c r="M7" t="n">
-        <v>45182.82244</v>
+        <v>42818.77473</v>
       </c>
       <c r="N7" t="n">
-        <v>45088.07135200001</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
+        <v>42581.78017199999</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>44866.98548</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.416325</v>
-      </c>
+        <v>42028.79287</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>53.21613554801785</v>
+        <v>44.35602101249999</v>
       </c>
       <c r="S7" t="n">
-        <v>92.0548123436667</v>
+        <v>7.244816765375</v>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
@@ -972,20 +908,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>22-02-2025</t>
+          <t>22-09-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>22-05-2025</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>22-07-2024</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>07-07-2034</t>
@@ -993,7 +921,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>mixto</t>
+          <t>fijo</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1001,39 +929,37 @@
           <t>cuota constante</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>0.2041666666666667</v>
+      </c>
       <c r="I8" t="n">
-        <v>166.22844229</v>
+        <v>85.80878543999999</v>
       </c>
       <c r="J8" t="n">
-        <v>483.2355487</v>
+        <v>877.403522</v>
       </c>
       <c r="K8" t="n">
-        <v>317.0071064</v>
+        <v>791.5947366</v>
       </c>
       <c r="L8" t="n">
-        <v>4950.021622</v>
+        <v>8262.801869000001</v>
       </c>
       <c r="M8" t="n">
-        <v>44866.98548</v>
+        <v>42028.79287</v>
       </c>
       <c r="N8" t="n">
-        <v>44796.53945555556</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
+        <v>41810.42190724138</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>44549.97837</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.416325</v>
-      </c>
+        <v>41237.19813</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>52.87204895365812</v>
+        <v>43.5525228200431</v>
       </c>
       <c r="S8" t="n">
-        <v>91.45960138842595</v>
+        <v>7.113578727273707</v>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
@@ -1042,20 +968,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>22-03-2025</t>
+          <t>22-11-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>22-05-2025</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>22-07-2024</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>07-07-2034</t>
@@ -1063,7 +981,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>mixto</t>
+          <t>fijo</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1071,39 +989,37 @@
           <t>cuota constante</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>0.2041666666666667</v>
+      </c>
       <c r="I9" t="n">
-        <v>165.05395736</v>
+        <v>84.19261285</v>
       </c>
       <c r="J9" t="n">
-        <v>483.2355487</v>
+        <v>877.403522</v>
       </c>
       <c r="K9" t="n">
-        <v>318.1815913</v>
+        <v>793.2109091</v>
       </c>
       <c r="L9" t="n">
-        <v>5268.203213</v>
+        <v>9056.012778</v>
       </c>
       <c r="M9" t="n">
-        <v>44549.97837</v>
+        <v>41237.19813</v>
       </c>
       <c r="N9" t="n">
-        <v>44454.523893</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
+        <v>41018.38132724138</v>
+      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>44231.79678</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.416325</v>
-      </c>
+        <v>40443.98722</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>52.46837796062768</v>
+        <v>42.72748054920977</v>
       </c>
       <c r="S9" t="n">
-        <v>90.76131961487501</v>
+        <v>6.978821823037596</v>
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
@@ -1112,20 +1028,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>22-04-2025</t>
+          <t>22-01-2026</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>22-05-2025</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>22-07-2024</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>07-07-2034</t>
@@ -1133,7 +1041,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>mixto</t>
+          <t>fijo</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1141,607 +1049,41 @@
           <t>cuota constante</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>0.2041666666666667</v>
+      </c>
       <c r="I10" t="n">
-        <v>163.87512109</v>
+        <v>82.57314057000001</v>
       </c>
       <c r="J10" t="n">
-        <v>483.2355487</v>
+        <v>877.403522</v>
       </c>
       <c r="K10" t="n">
-        <v>319.3604276</v>
+        <v>794.8303814</v>
       </c>
       <c r="L10" t="n">
-        <v>5587.563641</v>
+        <v>9850.843159</v>
       </c>
       <c r="M10" t="n">
-        <v>44231.79678</v>
+        <v>40443.98722</v>
       </c>
       <c r="N10" t="n">
-        <v>44143.69735103448</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
+        <v>40205.53810600001</v>
+      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>43912.43635</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.416325</v>
-      </c>
+        <v>39649.15684</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>52.10151845891993</v>
+        <v>41.88076886041667</v>
       </c>
       <c r="S10" t="n">
-        <v>90.12671542502875</v>
+        <v>6.840525580534725</v>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>22-05-2025</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>22-05-2026</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>22-07-2024</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>07-07-2034</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>mixto</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>cuota constante</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="n">
-        <v>89.65455755000001</v>
-      </c>
-      <c r="J11" t="n">
-        <v>465.5114015</v>
-      </c>
-      <c r="K11" t="n">
-        <v>375.856844</v>
-      </c>
-      <c r="L11" t="n">
-        <v>5963.420485</v>
-      </c>
-      <c r="M11" t="n">
-        <v>43912.43635</v>
-      </c>
-      <c r="N11" t="n">
-        <v>43799.67929800001</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>43536.57951</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.416325</v>
-      </c>
-      <c r="R11" t="n">
-        <v>51.69548398478322</v>
-      </c>
-      <c r="S11" t="n">
-        <v>13.52284681881793</v>
-      </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>22-06-2025</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>22-05-2026</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>22-07-2024</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>07-07-2034</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>mixto</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>cuota constante</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="n">
-        <v>88.88718317</v>
-      </c>
-      <c r="J12" t="n">
-        <v>465.5114015</v>
-      </c>
-      <c r="K12" t="n">
-        <v>376.6242183</v>
-      </c>
-      <c r="L12" t="n">
-        <v>6340.044703</v>
-      </c>
-      <c r="M12" t="n">
-        <v>43536.57951</v>
-      </c>
-      <c r="N12" t="n">
-        <v>43432.68317344828</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>43159.95529</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.416325</v>
-      </c>
-      <c r="R12" t="n">
-        <v>51.26232916302845</v>
-      </c>
-      <c r="S12" t="n">
-        <v>13.40953931394679</v>
-      </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>22-07-2025</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>22-05-2026</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>22-07-2024</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>07-07-2034</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>mixto</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>cuota constante</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="n">
-        <v>88.11824205000001</v>
-      </c>
-      <c r="J13" t="n">
-        <v>465.5114015</v>
-      </c>
-      <c r="K13" t="n">
-        <v>377.3931594</v>
-      </c>
-      <c r="L13" t="n">
-        <v>6717.437862</v>
-      </c>
-      <c r="M13" t="n">
-        <v>43159.95529</v>
-      </c>
-      <c r="N13" t="n">
-        <v>43046.737342</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>42782.56213</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.416325</v>
-      </c>
-      <c r="R13" t="n">
-        <v>50.80680855492346</v>
-      </c>
-      <c r="S13" t="n">
-        <v>13.29038121866651</v>
-      </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>22-08-2025</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>22-05-2026</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>22-07-2024</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>07-07-2034</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>mixto</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>cuota constante</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>87.34773102</v>
-      </c>
-      <c r="J14" t="n">
-        <v>465.5114015</v>
-      </c>
-      <c r="K14" t="n">
-        <v>378.1636705</v>
-      </c>
-      <c r="L14" t="n">
-        <v>7095.601533</v>
-      </c>
-      <c r="M14" t="n">
-        <v>42782.56213</v>
-      </c>
-      <c r="N14" t="n">
-        <v>42669.113029</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>42404.39846</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.416325</v>
-      </c>
-      <c r="R14" t="n">
-        <v>50.36110959233202</v>
-      </c>
-      <c r="S14" t="n">
-        <v>13.17379233441883</v>
-      </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>22-09-2025</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>22-05-2026</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>22-07-2024</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>07-07-2034</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>mixto</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>cuota constante</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>86.57564686000001</v>
-      </c>
-      <c r="J15" t="n">
-        <v>465.5114015</v>
-      </c>
-      <c r="K15" t="n">
-        <v>378.9357546</v>
-      </c>
-      <c r="L15" t="n">
-        <v>7474.537288</v>
-      </c>
-      <c r="M15" t="n">
-        <v>42404.39846</v>
-      </c>
-      <c r="N15" t="n">
-        <v>42299.86446</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>42025.46271</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.416325</v>
-      </c>
-      <c r="R15" t="n">
-        <v>49.92529627609125</v>
-      </c>
-      <c r="S15" t="n">
-        <v>13.05978940296625</v>
-      </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>22-10-2025</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>22-05-2026</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>22-07-2024</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>07-07-2034</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>mixto</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>cuota constante</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>85.80198636999999</v>
-      </c>
-      <c r="J16" t="n">
-        <v>465.5114015</v>
-      </c>
-      <c r="K16" t="n">
-        <v>379.7094151</v>
-      </c>
-      <c r="L16" t="n">
-        <v>7854.246703</v>
-      </c>
-      <c r="M16" t="n">
-        <v>42025.46271</v>
-      </c>
-      <c r="N16" t="n">
-        <v>41911.549884</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>41645.75329</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.416325</v>
-      </c>
-      <c r="R16" t="n">
-        <v>49.46697990788025</v>
-      </c>
-      <c r="S16" t="n">
-        <v>12.93989997425525</v>
-      </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>22-11-2025</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>22-05-2026</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>22-07-2024</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>07-07-2034</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>mixto</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>cuota constante</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>85.0267463</v>
-      </c>
-      <c r="J17" t="n">
-        <v>465.5114015</v>
-      </c>
-      <c r="K17" t="n">
-        <v>380.4846552</v>
-      </c>
-      <c r="L17" t="n">
-        <v>8234.731357999999</v>
-      </c>
-      <c r="M17" t="n">
-        <v>41645.75329</v>
-      </c>
-      <c r="N17" t="n">
-        <v>41540.79200448276</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>41265.26863</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.416325</v>
-      </c>
-      <c r="R17" t="n">
-        <v>49.02938519645753</v>
-      </c>
-      <c r="S17" t="n">
-        <v>12.8254310536618</v>
-      </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>22-12-2025</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>22-05-2026</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>22-07-2024</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>07-07-2034</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>mixto</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>cuota constante</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>84.24992345</v>
-      </c>
-      <c r="J18" t="n">
-        <v>465.5114015</v>
-      </c>
-      <c r="K18" t="n">
-        <v>381.261478</v>
-      </c>
-      <c r="L18" t="n">
-        <v>8615.992835999999</v>
-      </c>
-      <c r="M18" t="n">
-        <v>41265.26863</v>
-      </c>
-      <c r="N18" t="n">
-        <v>41150.890186</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>40884.00715</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.416325</v>
-      </c>
-      <c r="R18" t="n">
-        <v>48.5691954522387</v>
-      </c>
-      <c r="S18" t="n">
-        <v>12.70505157485676</v>
-      </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
